--- a/data/trans_camb/P29A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.756999130747213</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.423292486815088</v>
+        <v>-3.423292486815099</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.696069611461861</v>
@@ -664,7 +664,7 @@
         <v>4.615786450194259</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.094570516996294</v>
+        <v>-5.094570516996299</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.612359230637854</v>
+        <v>-2.057104065593498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3281007771106157</v>
+        <v>0.592028891117624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.96424620842542</v>
+        <v>-10.1837177526324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.443865969929849</v>
+        <v>-4.449024391859984</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.722171941175581</v>
+        <v>-3.634126853789176</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.50654380615264</v>
+        <v>-10.4546710275043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.700080156207345</v>
+        <v>-1.629012539096896</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6365339689562041</v>
+        <v>-0.4241255110224107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.452457088710977</v>
+        <v>-9.978553009783036</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.55733786106413</v>
+        <v>11.40444065482255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.96831334000249</v>
+        <v>13.514875369046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.314124890346175</v>
+        <v>2.595063874861386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.62309964020161</v>
+        <v>11.36173511619874</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.98946146323545</v>
+        <v>12.54089795227166</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.622991595589688</v>
+        <v>2.986792140844761</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.948916625733034</v>
+        <v>9.337739562885451</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.95906104953497</v>
+        <v>10.05254698728581</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.1365528690502655</v>
+        <v>-0.3828262552597741</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.0955043873704446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.08702143395974045</v>
+        <v>-0.08702143395974073</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.07204705446542052</v>
@@ -769,7 +769,7 @@
         <v>0.08997498768600436</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.09930786973754623</v>
+        <v>-0.09930786973754634</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04064938490722903</v>
+        <v>-0.03250139529477598</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.006550221163648226</v>
+        <v>0.007316467551087649</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1747390325502328</v>
+        <v>-0.165148680003469</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1006153917791874</v>
+        <v>-0.1068388151730915</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09156323218322897</v>
+        <v>-0.08463179035079967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2385225501868084</v>
+        <v>-0.239352963039782</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03154339995041788</v>
+        <v>-0.03009380829396959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01209533992304543</v>
+        <v>-0.01002777062788311</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1768778044823055</v>
+        <v>-0.1827248850721001</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2087450676827441</v>
+        <v>0.2034701604686306</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2508114040141903</v>
+        <v>0.2381750426705148</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04113875716010226</v>
+        <v>0.04691665631510401</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.335272362652091</v>
+        <v>0.323409502728972</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3353529793701974</v>
+        <v>0.3669221226451033</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1011317631368342</v>
+        <v>0.08615455991204084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1816084787691353</v>
+        <v>0.1923307365629393</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2048785656220363</v>
+        <v>0.2080941425610726</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.002431864555550199</v>
+        <v>-0.006673789360569921</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.54789342522804</v>
+        <v>-8.78425273795046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.309898003299768</v>
+        <v>-4.607357049074086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.05762795292431</v>
+        <v>-19.77493408023267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.562561320860199</v>
+        <v>-7.620618631198931</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.611628075076943</v>
+        <v>3.88968554241772</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.631890394248178</v>
+        <v>-9.572621315777615</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.130002932053987</v>
+        <v>-5.211098221384725</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.088901213935883</v>
+        <v>1.580283945004727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.46680829567356</v>
+        <v>-12.77173527034373</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.695709318913405</v>
+        <v>6.876931322904385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.10814617727628</v>
+        <v>11.21932090568696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.057634497605094</v>
+        <v>-5.017972573032541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.782532103536584</v>
+        <v>6.851201752417195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.10613369848823</v>
+        <v>18.23017346582731</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.783112920421654</v>
+        <v>3.416370215139385</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.304780017012979</v>
+        <v>5.64552898124354</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.4571177207406</v>
+        <v>12.00549261814185</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.66657384708147</v>
+        <v>-2.800235993450167</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1329133280757167</v>
+        <v>-0.1374391753522827</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06526328564857942</v>
+        <v>-0.07208923294932267</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3240993990173192</v>
+        <v>-0.3125918645863482</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.205490532573011</v>
+        <v>-0.1902450352987159</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09052091356975175</v>
+        <v>0.09262827758225307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2285431592249331</v>
+        <v>-0.232144301236525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1004848732394337</v>
+        <v>-0.101722017394421</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04115793692491871</v>
+        <v>0.02909110195447892</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2429597415689252</v>
+        <v>-0.2414694426803643</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1237697681103922</v>
+        <v>0.1218075055986401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.202158033673457</v>
+        <v>0.2056103058318877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1099895428818514</v>
+        <v>-0.09182977871788194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1927391568446646</v>
+        <v>0.201540995053364</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5238099980619301</v>
+        <v>0.5131001263389942</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08507961491226616</v>
+        <v>0.1014408502857418</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1162248529059535</v>
+        <v>0.1208228813661545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2720431642564418</v>
+        <v>0.2656511842980275</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05913289575101276</v>
+        <v>-0.05911684024947973</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.142912932404895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-11.69577569752925</v>
+        <v>-11.69577569752924</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-8.01759478845514</v>
@@ -1083,7 +1083,7 @@
         <v>-1.827651922413681</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-8.666660050243708</v>
+        <v>-8.66666005024371</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-5.714474982381406</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.050441619249332</v>
+        <v>-8.797811076822599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.38338477154361</v>
+        <v>-3.682623534605383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.17452896598112</v>
+        <v>-18.07223854892876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.71108014144684</v>
+        <v>-17.33422220127911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.05123232101471</v>
+        <v>-11.09656182384499</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.71605464637403</v>
+        <v>-17.62002003723276</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-11.10622160440925</v>
+        <v>-11.0420545348449</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.747988975415089</v>
+        <v>-4.894596985499679</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-17.80196977532557</v>
+        <v>-17.42531485744519</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.097282106259817</v>
+        <v>3.582106985116216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.269393575316244</v>
+        <v>8.107389925060561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.545928506071872</v>
+        <v>-5.500456581313317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9181914337495912</v>
+        <v>0.6545456745647819</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.609038220417787</v>
+        <v>9.402051781525806</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6089578492476687</v>
+        <v>-0.08162520557251725</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.5643263325026127</v>
+        <v>-0.05116555642912505</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.417149075815118</v>
+        <v>6.333543930617092</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.009260927771075</v>
+        <v>-6.239638206622669</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.03570495986211748</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1948736206318753</v>
+        <v>-0.1948736206318752</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2383443256836553</v>
@@ -1188,7 +1188,7 @@
         <v>-0.05433181353332776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2576395166015651</v>
+        <v>-0.2576395166015653</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.106393370262813</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1419999207295028</v>
+        <v>-0.1401708309534181</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06814376975981057</v>
+        <v>-0.05914954557446998</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2901373673589231</v>
+        <v>-0.2877039927540812</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4328973506161443</v>
+        <v>-0.4426980237894566</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2983000120609166</v>
+        <v>-0.2916860796097487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4513835082677572</v>
+        <v>-0.4522438498451912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.199288512184656</v>
+        <v>-0.1961256784016992</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08403365218196485</v>
+        <v>-0.087118020053704</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3169430894408294</v>
+        <v>-0.311020222686113</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05455160211398456</v>
+        <v>0.06111111279433012</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1433237049522942</v>
+        <v>0.1417477371364902</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.07701682948927324</v>
+        <v>-0.09163947406932647</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04460605625804587</v>
+        <v>0.02758445172762501</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2989847057103253</v>
+        <v>0.3505060142614402</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02503920472227708</v>
+        <v>0.007643667570367533</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01228351008430099</v>
+        <v>-0.001377705059988362</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1260049721786126</v>
+        <v>0.1238761946321296</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1356628980221859</v>
+        <v>-0.1215447170352299</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.980595781803364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.884691691851837</v>
+        <v>-2.884691691851848</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.2995543873760109</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.860636653123681</v>
+        <v>-2.389227777187783</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2233224109720114</v>
+        <v>-0.387099396147472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.457138909450098</v>
+        <v>-7.18381574765581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.362860773651701</v>
+        <v>-4.095081222225564</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.910090803974815</v>
+        <v>3.405967070131673</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.353869921057849</v>
+        <v>-3.144956925200002</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.74608035511627</v>
+        <v>-3.2742416518162</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.564225401801966</v>
+        <v>1.04168442809897</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.770460898808314</v>
+        <v>-6.019049350370345</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.886486332183104</v>
+        <v>5.446398545582385</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.337745120581225</v>
+        <v>7.872316040308948</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.581458796703729</v>
+        <v>1.475131454223708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.09823889504825</v>
+        <v>5.242054107426132</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.04970756492092</v>
+        <v>13.33897169635816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.388836997469185</v>
+        <v>5.427773128296923</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.64972025917206</v>
+        <v>3.627869204071673</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.4099080120074</v>
+        <v>7.546211472839532</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4663518338593506</v>
+        <v>0.5190994477625487</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.07782524923878062</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05639905737771267</v>
+        <v>-0.05639905737771288</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.01163661496668476</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05443106113570711</v>
+        <v>-0.04420699617372685</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.004576776420554246</v>
+        <v>-0.007195534057976781</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1404909031327207</v>
+        <v>-0.1370250396201891</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1529929947012391</v>
+        <v>-0.1466757722261041</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1341626403467021</v>
+        <v>0.111611691644989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1170805098577365</v>
+        <v>-0.1112355826823132</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06386506981120763</v>
+        <v>-0.07528502824336922</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03661723431016332</v>
+        <v>0.02412067412353349</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1360446909833239</v>
+        <v>-0.1396318709683619</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1230205555059187</v>
+        <v>0.1110296513256684</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1700329911993645</v>
+        <v>0.1600131538433437</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03259590494930484</v>
+        <v>0.02971453317566911</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2246755292053847</v>
+        <v>0.2214425486018909</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5408501214812753</v>
+        <v>0.5681268511922225</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2347901615739669</v>
+        <v>0.2297323881074175</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09054712803249482</v>
+        <v>0.09033533701130891</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1870002783167553</v>
+        <v>0.1895318304253153</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01149018627716667</v>
+        <v>0.01291308393559145</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.059278583064791</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.187444222272369</v>
+        <v>-4.187444222272371</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.317105065424695</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.26037062802058</v>
+        <v>-8.938390823539111</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.24955801719496</v>
+        <v>-16.391931265068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.72428401430882</v>
+        <v>-20.18393634377761</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.775395121760604</v>
+        <v>-6.478578290170582</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.60443245758677</v>
+        <v>-3.611794257428342</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.903575373204243</v>
+        <v>-8.247829190418882</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.630131380642213</v>
+        <v>-5.357730128656534</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.415688434478827</v>
+        <v>-5.188881336242736</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.08711951049003</v>
+        <v>-10.7151538817776</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.202459017305423</v>
+        <v>5.29040645539905</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.846540781450828</v>
+        <v>-3.00223553863693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.634731545158066</v>
+        <v>-5.979883621193667</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.686331592803203</v>
+        <v>3.452493594569577</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.650625879863417</v>
+        <v>6.298542983339549</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.0493561315199138</v>
+        <v>0.2044309932413727</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.119665911611562</v>
+        <v>3.110081803346863</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.078078513891006</v>
+        <v>3.011072662407078</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.040095851713464</v>
+        <v>-2.959634433556016</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04679157302853746</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.184972211523888</v>
+        <v>-0.1849722115238881</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.03627128859644651</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1329665682101821</v>
+        <v>-0.1433734200056266</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2588690679530604</v>
+        <v>-0.263895074382853</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3204654945851766</v>
+        <v>-0.3269661775012566</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2692116190148335</v>
+        <v>-0.252196309644089</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1451475402542208</v>
+        <v>-0.1436846091143354</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3428633467452492</v>
+        <v>-0.3261949396411763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1439602443186781</v>
+        <v>-0.1403196508801584</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.139006848925964</v>
+        <v>-0.1332760442902735</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2874223464030486</v>
+        <v>-0.2788608319337594</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09387041265257388</v>
+        <v>0.09977545759816894</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.0544579060666808</v>
+        <v>-0.05668506914764332</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1044344093419377</v>
+        <v>-0.10857630036291</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1331451785023232</v>
+        <v>0.1738052176274634</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2808655733758259</v>
+        <v>0.3161471694419397</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.002752682169558028</v>
+        <v>0.01020115614786713</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09277447969442636</v>
+        <v>0.09404263639795211</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.08947302362723579</v>
+        <v>0.0902400994250343</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.08884145046907756</v>
+        <v>-0.08752924717285061</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.567292191716771</v>
+        <v>-3.205267808172432</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.02217201243732128</v>
+        <v>-0.4039952931369571</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-19.88745379599154</v>
+        <v>-20.57117694198244</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.728770865787549</v>
+        <v>1.889519122286867</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.520411587951404</v>
+        <v>3.507852972687065</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.908654616761789</v>
+        <v>-3.800059032716014</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.044633878260685</v>
+        <v>1.850247577426597</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.315890326159455</v>
+        <v>3.799371437670354</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.314750608596844</v>
+        <v>-5.391209519500753</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.32799940229908</v>
+        <v>12.71787439553859</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.20034619025848</v>
+        <v>15.96166505745417</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.48788097357194</v>
+        <v>1.92400690237986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.961028051116184</v>
+        <v>7.985607997882563</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.03511601578784</v>
+        <v>10.35804250079574</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.817548856525403</v>
+        <v>2.465466584570503</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.150161239876958</v>
+        <v>8.047881190190335</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.87077489658298</v>
+        <v>10.3501735566701</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.006762734772216</v>
+        <v>1.880772856697614</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07400343810670867</v>
+        <v>-0.07003663179374164</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-2.908019388598383e-05</v>
+        <v>-0.00644476175601311</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4235052796494689</v>
+        <v>-0.4313491585032037</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.09460635034127925</v>
+        <v>0.1091660896216651</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.199176211850495</v>
+        <v>0.2040000548125367</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2415768647474018</v>
+        <v>-0.2235849115618997</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08181625613232431</v>
+        <v>0.07972281160093413</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1910364505386294</v>
+        <v>0.1641978190989608</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2337272139815071</v>
+        <v>-0.2439435847464768</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3278186265906887</v>
+        <v>0.3051284670355692</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3990127051316998</v>
+        <v>0.3968178878403089</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.08789657832399289</v>
+        <v>0.04434953656709335</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5361692168880388</v>
+        <v>0.5540966008435804</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6922360494079447</v>
+        <v>0.7138201696139187</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2007520251835344</v>
+        <v>0.1717797985565539</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4013590970691918</v>
+        <v>0.4083462518217308</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5504552281983159</v>
+        <v>0.5148826666734694</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1037030583490804</v>
+        <v>0.091261171114123</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>6.201948654479625</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.3122330092947823</v>
+        <v>-0.3122330092947878</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.059350681337512</v>
@@ -1948,7 +1948,7 @@
         <v>4.114610622321835</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.696457208039811</v>
+        <v>-3.696457208039816</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.214562422489212</v>
+        <v>-1.215582142274041</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.3626261692412031</v>
+        <v>-0.2627788920444774</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.720037613921804</v>
+        <v>-9.89872496830143</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.108883812249253</v>
+        <v>-0.940949692735202</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.012528623365396</v>
+        <v>4.094011093261535</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.198928816205683</v>
+        <v>-2.388937270105842</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6227614099054233</v>
+        <v>-0.6268873890778489</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.525236165835994</v>
+        <v>2.410693657569781</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.349049633390768</v>
+        <v>-5.356121187115834</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.714033126983486</v>
+        <v>3.725575597852532</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.496584278752326</v>
+        <v>4.77877956662088</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.372144739321179</v>
+        <v>-4.656017783687174</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.346902626060091</v>
+        <v>3.395620446002193</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.329589553114076</v>
+        <v>8.331653880898633</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.783442607511014</v>
+        <v>1.471093704867748</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.924519456847786</v>
+        <v>2.85706866166551</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.927157834125994</v>
+        <v>5.951532103249265</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.106094314470687</v>
+        <v>-1.913209920896906</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.2528796272153381</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.01273105783256644</v>
+        <v>-0.01273105783256667</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.02687376688019458</v>
@@ -2053,7 +2053,7 @@
         <v>0.1043800590446968</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.09377228055024728</v>
+        <v>-0.09377228055024742</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02158783043963052</v>
+        <v>-0.02229840906570454</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.006234530464957186</v>
+        <v>-0.00494095196347779</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1719578080114952</v>
+        <v>-0.1767215736078727</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0432335221283801</v>
+        <v>-0.03662335345123396</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1565771436397884</v>
+        <v>0.1582321324520804</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08579840009544834</v>
+        <v>-0.09184408876291718</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01645368324388307</v>
+        <v>-0.01513720049098886</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.06184788857076758</v>
+        <v>0.06109264542681245</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1317452880386613</v>
+        <v>-0.1315733853086531</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06827254452938318</v>
+        <v>0.0683979103969805</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08365765960316696</v>
+        <v>0.08779179023216699</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.08128892354155411</v>
+        <v>-0.08739948230069114</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.143373223029983</v>
+        <v>0.1432901287087562</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3550210054399266</v>
+        <v>0.3515824854291757</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.07801949706387701</v>
+        <v>0.06218032829894072</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07627101849294575</v>
+        <v>0.07380623895896228</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1541396309738809</v>
+        <v>0.1546390329088552</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.05427912884247363</v>
+        <v>-0.04869030546577704</v>
       </c>
     </row>
     <row r="46">
